--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>376800.6061809956</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2629876.587221767</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>39.58387696184059</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G3" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
         <v>39.58387696184059</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -944,13 +944,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>12.92549025883184</v>
-      </c>
-      <c r="G8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,49 +1221,49 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>39.58387696184059</v>
@@ -1342,7 +1342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,70 +1373,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F11" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="X11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,52 +1695,52 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H15" t="n">
+      <c r="S15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I15" t="n">
+      <c r="T15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1853,46 +1853,46 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16.93162886246722</v>
+      </c>
+      <c r="I17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H17" t="n">
+      <c r="S17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.20118209180435</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.7904504476822691</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,55 +2567,55 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>142.5604457808193</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2688,13 +2688,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9296542030774</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2871,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>40.9771494785216</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>145.8040758417443</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>224.2386698395766</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>32.59406471070924</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,64 +3187,64 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>203.7190067426828</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>103.0088977318019</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -3548,16 +3548,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>64.70168638270644</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>9.729593386309594</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>36.4701405294996</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>198.2885478252619</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>131.1368680908909</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>162.0801820489577</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>39.58387696184059</v>
@@ -4104,7 +4104,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,58 +4144,58 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I46" t="n">
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
+        <v>7.256111626157765</v>
+      </c>
+      <c r="W46" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4331,13 +4331,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95943146291799</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
         <v>79.95943146291799</v>
@@ -4352,7 +4352,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S2" t="n">
         <v>123.1178524655551</v>
@@ -4361,13 +4361,13 @@
         <v>123.1178524655551</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V2" t="n">
-        <v>123.1178524655551</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X2" t="n">
         <v>43.15042425981653</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>118.3517937444931</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G3" t="n">
         <v>83.88827101547153</v>
@@ -4410,49 +4410,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N3" t="n">
-        <v>120.7308247336138</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4510,28 +4510,28 @@
         <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="F5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I5" t="n">
         <v>15.2366994040306</v>
@@ -4571,13 +4571,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
         <v>158.3355078473624</v>
@@ -4592,25 +4592,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="U5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="W5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="X5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
@@ -4650,10 +4650,10 @@
         <v>40.77139327069581</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N6" t="n">
         <v>119.1474696551402</v>
@@ -4662,34 +4662,34 @@
         <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4714,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="C8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="I8" t="n">
         <v>15.2366994040306</v>
@@ -4811,10 +4811,10 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
         <v>158.3355078473624</v>
@@ -4826,28 +4826,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>148.2438924791353</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="X8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="Y8" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L9" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N9" t="n">
         <v>79.95943146291799</v>
@@ -4899,34 +4899,34 @@
         <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="10">
@@ -4978,16 +4978,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T10" t="n">
         <v>3.166710156947247</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L11" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="M11" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N11" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N11" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O11" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O12" t="n">
         <v>119.1474696551402</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F13" t="n">
         <v>3.166710156947247</v>
@@ -5215,34 +5215,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
@@ -5282,7 +5282,7 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
         <v>119.1474696551402</v>
@@ -5300,28 +5300,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T14" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
@@ -5361,13 +5361,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
         <v>119.1474696551402</v>
@@ -5379,28 +5379,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F17" t="n">
-        <v>131.9507376187037</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G17" t="n">
-        <v>87.37278572049297</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="H17" t="n">
-        <v>42.79483382228227</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
@@ -5519,46 +5519,46 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
         <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8626583413347</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
@@ -5622,22 +5622,22 @@
         <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C19" t="n">
         <v>3.530573790338288</v>
@@ -5689,34 +5689,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V19" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W19" t="n">
-        <v>46.15803044872652</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X19" t="n">
-        <v>46.15803044872652</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.15803044872652</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5792,10 +5792,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5841,13 +5841,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.7812428759814</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>136.7812428759814</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>136.7812428759814</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>136.7812428759814</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>136.7812428759814</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6172,22 +6172,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6203,19 +6203,19 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6260,7 +6260,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
         <v>720.6083788665362</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>310.5702840197694</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C27" t="n">
-        <v>310.5702840197694</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D27" t="n">
-        <v>310.5702840197694</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E27" t="n">
         <v>166.5698337361135</v>
@@ -6312,7 +6312,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6336,19 +6336,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6587889471018</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6587889471018</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>533.6587889471018</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y27" t="n">
-        <v>310.5702840197694</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="28">
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6497,13 +6497,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y29" t="n">
         <v>233.7108255783361</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.1447485139397</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>346.6917192328127</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>346.6917192328127</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>346.6917192328127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>200.1571612596977</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>61.42633584231319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>816.780311226046</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>614.593716584812</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6783,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>361.9495094114078</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>361.9495094114078</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>361.9495094114078</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>361.9495094114078</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7017,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.8659450146204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.6423267510095</v>
+        <v>758.2803810230778</v>
       </c>
       <c r="V36" t="n">
-        <v>470.4902185192667</v>
+        <v>758.2803810230778</v>
       </c>
       <c r="W36" t="n">
-        <v>227.0414418751666</v>
+        <v>758.2803810230778</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G38" t="n">
-        <v>348.0024326625565</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H38" t="n">
         <v>243.9530410142718</v>
@@ -7196,28 +7196,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>591.4512093066566</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y38" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>619.4388494194218</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="C39" t="n">
-        <v>619.4388494194218</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="D39" t="n">
-        <v>554.0836106490112</v>
+        <v>29.10901521759615</v>
       </c>
       <c r="E39" t="n">
-        <v>394.8461556435558</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>619.4388494194218</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>619.4388494194218</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y39" t="n">
-        <v>619.4388494194218</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="40">
@@ -7309,19 +7309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>306.680333360037</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>306.680333360037</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>306.680333360037</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>306.680333360037</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>67.82579451127836</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
         <v>18.91727947682168</v>
@@ -7433,28 +7433,28 @@
         <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>784.3894110575544</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>784.3894110575544</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>784.3894110575544</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>784.3894110575544</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>784.3894110575544</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>784.3894110575544</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>784.3894110575544</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="Y41" t="n">
-        <v>545.5348722087957</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>369.8747348379866</v>
+        <v>325.8317916780405</v>
       </c>
       <c r="C42" t="n">
-        <v>369.8747348379866</v>
+        <v>151.3787623969135</v>
       </c>
       <c r="D42" t="n">
-        <v>369.8747348379866</v>
+        <v>151.3787623969135</v>
       </c>
       <c r="E42" t="n">
-        <v>369.8747348379866</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>223.3401768648716</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>223.3401768648716</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
@@ -7494,16 +7494,16 @@
         <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>18.91727947682168</v>
+        <v>248.8803853451708</v>
       </c>
       <c r="M42" t="n">
-        <v>225.6232706630674</v>
+        <v>408.2667482764182</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>642.3680818020865</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
         <v>876.4694153277549</v>
@@ -7533,7 +7533,7 @@
         <v>533.5920904429944</v>
       </c>
       <c r="Y42" t="n">
-        <v>369.8747348379866</v>
+        <v>325.8317916780405</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>811.3316833508135</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>811.3316833508135</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>811.3316833508135</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>811.3316833508135</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="V43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J44" t="n">
         <v>3.166710156947247</v>
@@ -7652,13 +7652,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N44" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="N44" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
         <v>119.1474696551402</v>
@@ -7673,25 +7673,25 @@
         <v>148.2438924791353</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7752,22 +7752,22 @@
         <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U45" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V45" t="n">
         <v>38.38436553875449</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y45" t="n">
         <v>3.166710156947247</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
         <v>3.166710156947247</v>
@@ -7822,34 +7822,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="V46" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
         <v>269.6820883835273</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8219,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,22 +8298,22 @@
         <v>175.8259673720848</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
         <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,13 +8459,13 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M12" t="n">
         <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8930,10 +8930,10 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -9009,7 +9009,7 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9018,7 +9018,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
         <v>173.5582843761708</v>
@@ -9167,19 +9167,19 @@
         <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9252,16 +9252,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
         <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>176.3234617176304</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>350.9279644131756</v>
+        <v>303.1303601151975</v>
       </c>
       <c r="N42" t="n">
         <v>367.8077055436044</v>
@@ -11154,7 +11154,7 @@
         <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>268.3307616249986</v>
@@ -11309,7 +11309,7 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
         <v>270.8168727171101</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,25 +22592,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S2" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>346.654061694213</v>
@@ -22635,10 +22635,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>103.2246296614793</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
         <v>72.65156727465587</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>130.8799781651428</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22799,10 +22799,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22832,13 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>196.0945793274135</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>238.4201626490047</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
         <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>83.3816277554085</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>197.5503993115741</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>46.5781662898538</v>
@@ -23230,7 +23230,7 @@
         <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>331.7668521473063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,19 +23312,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>361.3631590426092</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>157.2692687373636</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>322.5431732532999</v>
       </c>
       <c r="I17" t="n">
-        <v>171.6042721387814</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,10 +23862,10 @@
         <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.6307980901329</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,13 +24221,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>382.972622598857</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>21.01841839509962</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24500,10 +24500,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>15.08463467458162</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24576,13 +24576,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0.01172787789744234</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24737,7 +24737,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24759,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>71.25829475797485</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>25.87909526209353</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24974,13 +24974,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.702712241398189</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>173.1789204927682</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,13 +25205,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,10 +25233,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25284,19 +25284,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.2754303037659</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>22.22237533829198</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>236.4659043839653</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>221.5634867990163</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>82.74337918193231</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>147.9154870690913</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25640,7 +25640,7 @@
         <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>378.8325969856355</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>150.9524208921511</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,28 +25707,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>26.50821236451009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>43.60251372834665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>393.9505554828796</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>184.145289972801</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>346.654061694213</v>
@@ -25992,7 +25992,7 @@
         <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26001,16 @@
         <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="46">
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26071,19 +26071,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>244.8815316976702</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535967</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26314,31 +26314,31 @@
         <v>59211.39971146601</v>
       </c>
       <c r="C2" t="n">
+        <v>59211.39971146601</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59211.39971146601</v>
+      </c>
+      <c r="E2" t="n">
         <v>59211.39971146602</v>
       </c>
-      <c r="D2" t="n">
-        <v>59211.399711466</v>
-      </c>
-      <c r="E2" t="n">
-        <v>59211.399711466</v>
-      </c>
       <c r="F2" t="n">
-        <v>59211.399711466</v>
+        <v>59211.39971146603</v>
       </c>
       <c r="G2" t="n">
         <v>59776.50267559938</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566619</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566618</v>
@@ -26347,13 +26347,13 @@
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="O2" t="n">
         <v>82541.98000756433</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.399711466</v>
+        <v>59211.39971146603</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="D4" t="n">
         <v>33.41106180436364</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="F4" t="n">
         <v>33.41106180436364</v>
@@ -26442,7 +26442,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26457,7 @@
         <v>176.2367752791008</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436363</v>
+        <v>33.41106180436364</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298832</v>
+        <v>9878.221331298824</v>
       </c>
       <c r="C6" t="n">
         <v>23143.68893038174</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038173</v>
+        <v>23143.68893038174</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038173</v>
+        <v>56771.28893038175</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038173</v>
+        <v>56771.28893038176</v>
       </c>
       <c r="G6" t="n">
         <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387554</v>
+        <v>15126.56803387552</v>
       </c>
       <c r="I6" t="n">
         <v>68247.13500420057</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039675</v>
+        <v>57890.25110039672</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420052</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="L6" t="n">
         <v>68247.13500420054</v>
@@ -26555,13 +26555,13 @@
         <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420051</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="O6" t="n">
         <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038173</v>
+        <v>56771.28893038176</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>39.58387696184059</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="O3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O3" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N5" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>37.98452839772582</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N8" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L9" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L11" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="M11" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M14" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M14" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="P15" t="n">
         <v>39.58387696184059</v>
@@ -35887,19 +35887,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M17" t="n">
-        <v>42.34905430330019</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N27" t="n">
         <v>55.51629994036225</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>208.7939304911573</v>
+        <v>160.9963261931792</v>
       </c>
       <c r="N42" t="n">
         <v>236.4659934602711</v>
@@ -37874,7 +37874,7 @@
         <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>37.98452839772582</v>
@@ -38029,7 +38029,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
         <v>39.58387696184059</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809956</v>
+        <v>373609.6494672062</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221767</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488907</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I4" t="n">
-        <v>24.5704967621155</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.977552361264268</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>12.92549025883184</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1528,31 +1530,31 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
-        <v>7.256111626157765</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1859,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,64 +2089,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2172,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>107.8030269818535</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.583694061602047</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,61 +2238,61 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>3.265316057196634</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>171.0057867469176</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9296542030774</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>20.78468020671257</v>
       </c>
     </row>
     <row r="28">
@@ -2710,70 +2712,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2852,10 +2854,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>145.8040758417443</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>32.59406471070924</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>49.23554341427958</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>62.48291670214915</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>203.7190067426828</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3506,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,49 +3520,49 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U38" t="n">
-        <v>29.78216610882018</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>9.729593386309594</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3676,52 +3678,52 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>198.2885478252619</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>131.1368680908909</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>38.17946863125426</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4022,19 +4024,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>39.58387696184059</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.86547882798917</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V2" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H4" t="n">
-        <v>90.46354404567346</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>95.20412760976917</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G7" t="n">
-        <v>93.21247408113457</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H7" t="n">
-        <v>53.22875997826529</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I7" t="n">
-        <v>13.245045875396</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H8" t="n">
-        <v>28.29275017052741</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>83.13413836268582</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>68.2764642733967</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H16" t="n">
-        <v>10.49611583993489</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>10.49611583993489</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>10.49611583993489</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>77.28117035226589</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>77.28117035226589</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>77.28117035226589</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>787.171420448546</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>433.9451025351</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>274.7076475296445</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>128.1730895565294</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>955.386757468614</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6166,10 +6168,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.807288741569</v>
+        <v>500.260318022696</v>
       </c>
       <c r="C27" t="n">
         <v>325.807288741569</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6587889471018</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6587889471018</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6587889471018</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>325.807288741569</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.807288741569</v>
+        <v>668.4756550427639</v>
       </c>
     </row>
     <row r="28">
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M30" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N30" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>816.780311226046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>614.593716584812</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>386.3700983212011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>386.3700983212011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>386.3700983212011</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X30" t="n">
-        <v>178.5185981156682</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6645,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.9716273967953</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9472631818171</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>521.1869644168632</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>758.2803810230778</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>758.2803810230778</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W36" t="n">
-        <v>758.2803810230778</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X36" t="n">
-        <v>550.428880817545</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.668582052591</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="37">
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.0434248788474</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C39" t="n">
-        <v>178.0434248788474</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="D39" t="n">
-        <v>29.10901521759615</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>554.0190606638694</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y39" t="n">
-        <v>346.2587618989155</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7369,13 +7371,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>325.8317916780405</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C42" t="n">
-        <v>151.3787623969135</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D42" t="n">
-        <v>151.3787623969135</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>408.2667482764182</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>772.4466292917531</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>533.5920904429944</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>533.5920904429944</v>
+        <v>508.6259144876553</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8317916780405</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.29275017052741</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C44" t="n">
-        <v>28.29275017052741</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D44" t="n">
-        <v>28.29275017052741</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E44" t="n">
-        <v>28.29275017052741</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F44" t="n">
-        <v>15.2366994040306</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G44" t="n">
-        <v>15.2366994040306</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H44" t="n">
-        <v>15.2366994040306</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>15.2366994040306</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2438924791353</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>148.2438924791353</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>148.2438924791353</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U44" t="n">
-        <v>108.260178376266</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V44" t="n">
-        <v>108.260178376266</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W44" t="n">
-        <v>108.260178376266</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X44" t="n">
-        <v>108.260178376266</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.2764642733967</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7308247336138</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>78.36807964162378</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>78.36807964162378</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>38.38436553875449</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>38.38436553875449</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>38.38436553875449</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X45" t="n">
-        <v>38.38436553875449</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>50.47982994280417</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>222.4246658592332</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>399.6518023927121</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>303.1303601151975</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>171.9589358120561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,10 +22603,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I4" t="n">
-        <v>130.8799781651428</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>196.0945793274135</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>83.3816277554085</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23036,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>197.5503993115741</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23118,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.3631590426092</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23416,31 +23418,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>226.4708732943921</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
-        <v>15.01338019972509</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>322.5431732532999</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>285.7325478889088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24014,25 +24016,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24060,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>29.54049018135709</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.0990017157023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.972622598857</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>60.3442152127903</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>61.79480040250769</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01172787789744234</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>184.8980155705918</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24740,10 +24742,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>25.87909526209353</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>67.81068582972321</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>173.1789204927682</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>156.4471523630248</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>82.58629569123474</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>22.22237533829198</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25394,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>221.5634867990163</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>147.9154870690913</v>
+        <v>59.87861993556002</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9524208921511</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>26.50821236451009</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>167.5935165722232</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>152.0811711237432</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>132.0992941419972</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26062,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26071,19 +26073,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>244.8815316976702</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
@@ -26344,16 +26346,16 @@
         <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="N2" t="n">
         <v>83080.33626566616</v>
       </c>
       <c r="O2" t="n">
-        <v>82541.98000756433</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146603</v>
+        <v>83080.33626566618</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26442,7 +26444,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298824</v>
+        <v>8639.090067833808</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207802</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038175</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038176</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372819</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387552</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039672</v>
+        <v>56700.21689420965</v>
       </c>
       <c r="K6" t="n">
         <v>68247.13500420054</v>
@@ -26552,16 +26554,16 @@
         <v>68247.13500420054</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="N6" t="n">
         <v>68247.13500420052</v>
       </c>
       <c r="O6" t="n">
-        <v>67988.61082990075</v>
+        <v>20867.25678673675</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038176</v>
+        <v>68247.13500420054</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>163.8853874227249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>160.9963261931792</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>37.98452839772582</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672062</v>
+        <v>268277.9841761546</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956402</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488907</v>
+        <v>5764008.847562065</v>
       </c>
     </row>
     <row r="11">
@@ -664,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>16.93162886246722</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>44.13217237922859</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
     </row>
     <row r="6">
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>121.9551940726745</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>119.6220884514727</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>98.1556842899701</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,13 +1897,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>91.47501740479427</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8030269818535</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,20 +2320,20 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>104.0508854668114</v>
       </c>
       <c r="V24" t="n">
-        <v>171.0057867469176</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2566,52 +2566,52 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.78468020671257</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>200.3360962888297</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>125.6067653305766</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>183.8842973311964</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.23554341427958</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3207,43 +3207,43 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>62.48291670214915</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3365,10 +3365,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3465,19 +3465,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>11.76968615480618</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>73.59124111000143</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>38.17946863125426</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>71.01467844038818</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,22 +4058,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>150.4149128677507</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>166.4370741486873</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E2" t="n">
-        <v>166.4370741486873</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>149.3344187320537</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>131.9507376187037</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>131.9507376187037</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>87.37278572049297</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>87.37278572049297</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V8" t="n">
-        <v>87.37278572049297</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W8" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>92.68647758675968</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.68647758675968</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>742.0572336882969</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E12" t="n">
-        <v>92.68647758675968</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F12" t="n">
-        <v>48.10852568854899</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C15" t="n">
-        <v>137.2644294849704</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D15" t="n">
-        <v>92.68647758675968</v>
+        <v>607.3624470844311</v>
       </c>
       <c r="E15" t="n">
-        <v>92.68647758675968</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
+        <v>728.6161971483371</v>
+      </c>
+      <c r="U20" t="n">
+        <v>728.6161971483371</v>
+      </c>
+      <c r="V20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>433.9451025351</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>274.7076475296445</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>128.1730895565294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>757.7857215515912</v>
       </c>
       <c r="V24" t="n">
-        <v>187.4964801302808</v>
+        <v>522.6336133198486</v>
       </c>
       <c r="W24" t="n">
-        <v>187.4964801302808</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4964801302808</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>279.1848366757484</v>
       </c>
     </row>
     <row r="25">
@@ -6168,7 +6168,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>500.260318022696</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>668.4756550427639</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>663.7642904253692</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>663.7642904253692</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>663.7642904253692</v>
       </c>
       <c r="W30" t="n">
-        <v>778.3154410346802</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="X30" t="n">
-        <v>570.4639408291474</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="Y30" t="n">
-        <v>362.7036420641935</v>
+        <v>420.3155137812691</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6891,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>425.5489231905453</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C36" t="n">
-        <v>425.5489231905453</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>425.5489231905453</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>425.5489231905453</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>425.5489231905453</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="Y36" t="n">
-        <v>425.5489231905453</v>
+        <v>894.3028637799077</v>
       </c>
     </row>
     <row r="37">
@@ -7113,16 +7113,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7156,13 +7156,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7174,7 +7174,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>118.0351436353046</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C39" t="n">
-        <v>118.0351436353046</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D39" t="n">
-        <v>118.0351436353046</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7265,10 +7265,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X39" t="n">
-        <v>325.7954424002585</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y39" t="n">
-        <v>118.0351436353046</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7447,10 +7447,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
         <v>506.1786963984129</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.6502787026334</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F42" t="n">
         <v>132.6502787026334</v>
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>508.6259144876553</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.8656157227014</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D44" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>730.8505943024719</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>487.4018176583718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>171.2153985321831</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.4307355522512</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22552,25 +22552,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>389.9444168792442</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1705651359065</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>313.7674402315048</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23038,10 +23038,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,28 +23068,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>25.48987149196429</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23305,16 +23305,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>330.8594832468445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>46.91109519839463</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>59.48939616543085</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>75.05816624507307</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24053,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>29.54049018135709</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24098,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>180.9561245870265</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>121.8904966141635</v>
       </c>
       <c r="V24" t="n">
-        <v>61.79480040250769</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>216.1750534792721</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>184.8980155705918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>74.55796336424503</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>67.81068582972321</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>156.4471523630248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25207,13 +25207,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>82.58629569123474</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,10 +25253,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>136.7162363900563</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25353,19 +25353,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25441,16 +25441,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25478,16 +25478,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>59.87861993556002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>133.2995262385777</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25687,13 +25687,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X41" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>73.85382445463732</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25757,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>167.5935165722232</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>152.0811711237432</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>22.29358612056504</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="G2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="H2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="I2" t="n">
         <v>83080.33626566615</v>
-      </c>
-      <c r="H2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83080.33626566616</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833808</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207802</v>
+        <v>22401.52438416005</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372819</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420965</v>
+        <v>-7030.818214946155</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673675</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>217.7067518141195</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761546</v>
+        <v>362272.9485238822</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562065</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>45.27093583804391</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W8" t="n">
-        <v>62.4162677022923</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>121.9551940726745</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.0142888776591</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>119.6220884514727</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
-        <v>70.34400780127524</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>98.1556842899701</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>94.41048699370604</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.47501740479427</v>
+        <v>97.01986919358306</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>188.9257796665961</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>70.73885857389313</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>104.0508854668114</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="25">
@@ -2566,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>16.62553367015321</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>125.6067653305766</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,70 +2955,70 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>9.73723617201896</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>65.13060206523731</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,49 +3283,49 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>69.05674881342119</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,70 +3502,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.76968615480618</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>212.2853856434421</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73.59124111000143</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,55 +3991,55 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T44" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>69.05674881342119</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C2" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="W3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="X3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y3" t="n">
-        <v>156.0631229240681</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>65.60123993063803</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>176.4352409821462</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>569.2254314512334</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>325.7766548071333</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>790.6398109613051</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>790.6398109613051</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>790.6398109613051</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y9" t="n">
-        <v>790.6398109613051</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>587.3248651012614</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>742.0572336882969</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C12" t="n">
-        <v>567.60420440717</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D12" t="n">
-        <v>418.6697947459187</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E12" t="n">
-        <v>418.6697947459187</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F12" t="n">
-        <v>272.1352367728036</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>577.2332497330343</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>333.7844730889342</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>333.7844730889342</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W14" t="n">
-        <v>90.33569644483418</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X14" t="n">
-        <v>90.33569644483418</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>756.2968567456824</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C15" t="n">
-        <v>756.2968567456824</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D15" t="n">
-        <v>607.3624470844311</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.2968567456824</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>291.8877337080889</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>291.8877337080889</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>291.8877337080889</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>627.7355178317791</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>384.2867411876791</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X18" t="n">
-        <v>384.2867411876791</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y18" t="n">
-        <v>384.2867411876791</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>656.0584510084244</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5949,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>757.7857215515912</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>522.6336133198486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>279.1848366757484</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>279.1848366757484</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F26" t="n">
-        <v>495.259035872464</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>251.810259228364</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>470.4902185192667</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6420,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>485.167420504237</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X29" t="n">
-        <v>485.167420504237</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y29" t="n">
-        <v>485.167420504237</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>420.3155137812691</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C30" t="n">
-        <v>420.3155137812691</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D30" t="n">
-        <v>271.3811041200179</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3811041200179</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,40 +6554,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>663.7642904253692</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>663.7642904253692</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>663.7642904253692</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>420.3155137812691</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>420.3155137812691</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y30" t="n">
-        <v>420.3155137812691</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6666,7 +6666,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>944.1299480494607</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>475.3318284112885</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>894.3028637799077</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>894.3028637799077</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7174,7 +7174,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V38" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W38" t="n">
-        <v>527.5764290961142</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X38" t="n">
-        <v>527.5764290961142</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y38" t="n">
-        <v>527.5764290961142</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2696759935595</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>283.2696759935595</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7371,7 +7371,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>438.4222916812039</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,43 +7499,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>274.0360370837871</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>726.0875267598396</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>577.1531170985884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>174.6270615612551</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10202,7 +10202,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>174.6270615612551</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22552,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="3">
@@ -22643,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>66.96450839845255</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>194.6755610440586</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22749,25 +22749,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>313.7674402315048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>134.5834728829491</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.1001388840902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22998,19 +22998,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>325.8021234036032</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W8" t="n">
-        <v>286.8247010151207</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>25.48987149196429</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23193,10 +23193,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>364.9987412097946</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>171.0109458920165</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46.91109519839463</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23463,10 +23463,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23475,10 +23475,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.8939308547783</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>59.48939616543085</v>
+        <v>119.5200543500343</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.05816624507307</v>
+        <v>69.51331445628428</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>37.01560241437875</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>180.9561245870265</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>121.8904966141635</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="25">
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H26" t="n">
-        <v>109.2709771587974</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>216.1750534792721</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>309.459871647713</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>74.55796336424503</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>160.5020493654335</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>199.2828334142264</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,13 +25052,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>186.5643810956823</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>170.275430303766</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>136.7162363900563</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>133.2995262385777</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25687,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>136.9555830739709</v>
+        <v>298.773990369733</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,25 +25712,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>73.85382445463732</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>343.4899854645034</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>103.6517501748945</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535967</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>59776.50267559938</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59776.50267559937</v>
+      </c>
+      <c r="G2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="C2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83080.33626566615</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
+        <v>83080.33626566624</v>
+      </c>
+      <c r="I2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="G2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="H2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83080.33626566615</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738762</v>
+        <v>7184.250669929086</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.95667417332</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.52438416005</v>
+        <v>21973.95667417332</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.5566741733</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.12438416007</v>
+        <v>13062.8990417242</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219655</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946155</v>
+        <v>55478.4158322056</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.12438416007</v>
+        <v>19645.45572473271</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219649</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
